--- a/Result/blind_sequencing_result_line_version.xlsx
+++ b/Result/blind_sequencing_result_line_version.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,7 +382,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UGAGCCACGGUGAAAAAGUUCAACUAUUGCCUGAUCGGAAUAAAAUU</t>
+          <t>UCGUGGCUGAGCCACGGUGAAAAAGUUCAACUAUUGCCUGAUCGGAAUAAAAUUGAACGAUAAAGAUCG</t>
         </is>
       </c>
       <c r="B2">
@@ -394,13 +394,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>3151.43561388501</v>
+        <v>856.121162535611</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GGCCGAGUGGUCGUUUUAGAGCUAGA</t>
+          <t>AGGAUGGCCGAGUGGUCGUUUUAGAGCUAGAAAUAGCAAGUUAAAAUAAGGCUAGUCCGUUAUCA</t>
         </is>
       </c>
       <c r="B3">
@@ -412,17 +412,17 @@
         </is>
       </c>
       <c r="D3">
-        <v>2667.37226926441</v>
+        <v>974.125505972759</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GGAUGGCCGAGUGGUCGUUUUAGAGCUAGAAAUAGCAAGUUA</t>
+          <t>UGCUAAAAGUAUCGAAGUUCUCCUAAG</t>
         </is>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -430,13 +430,13 @@
         </is>
       </c>
       <c r="D4">
-        <v>1324.19134944195</v>
+        <v>1021.16375929381</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UGAGCCACGGUGAAAAAGUU</t>
+          <t>CUCUGCAAGA</t>
         </is>
       </c>
       <c r="B5">
@@ -448,13 +448,13 @@
         </is>
       </c>
       <c r="D5">
-        <v>3173.41782790305</v>
+        <v>2033.28152662886</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GUAGCAAGUUAAAAUAAGGCUAGUCCGUUAUCAACUUGAAAAA</t>
+          <t>AGGAUGGCCGAGUGGUGGUUUU</t>
         </is>
       </c>
       <c r="B6">
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="D6">
-        <v>11438.4992682264</v>
+        <v>956.114895586928</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>UGAAAAAUUG</t>
+          <t>UGUUUAACG</t>
         </is>
       </c>
       <c r="B7">
@@ -484,17 +484,17 @@
         </is>
       </c>
       <c r="D7">
-        <v>6467.80156240349</v>
+        <v>1319.17279364181</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CACGGUGAAAAAGUUCAAC</t>
+          <t>UGGCGUAAUAU</t>
         </is>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -502,17 +502,17 @@
         </is>
       </c>
       <c r="D8">
-        <v>4882.77001524232</v>
+        <v>1005.16888619161</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ACGAUAAAGAUCG</t>
+          <t>AAAC</t>
         </is>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -520,17 +520,17 @@
         </is>
       </c>
       <c r="D9">
-        <v>18982.54231982</v>
+        <v>1633.2163994763</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UGAGCCACUGAAACGUUAAAGG</t>
+          <t>UGAGCAG</t>
         </is>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -538,17 +538,17 @@
         </is>
       </c>
       <c r="D10">
-        <v>3208.35505495143</v>
+        <v>1334.22217607571</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UAUGCUACGAUUGAUAA</t>
+          <t>UUGU</t>
         </is>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -556,17 +556,17 @@
         </is>
       </c>
       <c r="D11">
-        <v>2964.43795203641</v>
+        <v>1280.15046162942</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GCUUCUUGCCCG</t>
+          <t>GUCAUAACUG</t>
         </is>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="D12">
-        <v>10057.3451731812</v>
+        <v>2220.27362119509</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GUAACGAUAGUAAAAACC</t>
+          <t>CUCAUGUUG</t>
         </is>
       </c>
       <c r="B13">
@@ -592,17 +592,17 @@
         </is>
       </c>
       <c r="D13">
-        <v>1293.18464636066</v>
+        <v>982.140891356629</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AAAGUACGAUUAAGUUCAA</t>
+          <t>GUC</t>
         </is>
       </c>
       <c r="B14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -610,13 +610,13 @@
         </is>
       </c>
       <c r="D14">
-        <v>1959.26824760388</v>
+        <v>3561.44852206472</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AAAAUAAGAAGGUCUUGUGCUACUCAUCG</t>
+          <t>AUCUUAACGG</t>
         </is>
       </c>
       <c r="B15">
@@ -628,17 +628,17 @@
         </is>
       </c>
       <c r="D15">
-        <v>5535.7574508232</v>
+        <v>4594.66016086362</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AGUGGUCGUUUUAGAGCUAGAAAUAG</t>
+          <t>CGA</t>
         </is>
       </c>
       <c r="B16">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -646,17 +646,17 @@
         </is>
       </c>
       <c r="D16">
-        <v>4334.57990460628</v>
+        <v>2989.40415463153</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CGAGUGGUCGUUC</t>
+          <t>GCAGCUGG</t>
         </is>
       </c>
       <c r="B17">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -664,13 +664,13 @@
         </is>
       </c>
       <c r="D17">
-        <v>3666.48199722616</v>
+        <v>1953.26875689299</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AGAUCAAGCUGACA</t>
+          <t>GUCU</t>
         </is>
       </c>
       <c r="B18">
@@ -682,17 +682,17 @@
         </is>
       </c>
       <c r="D18">
-        <v>9031.19834247377</v>
+        <v>2244.28901791784</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AGUGGUCGUUUUAGAGCUAGAA</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="B19">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -700,17 +700,17 @@
         </is>
       </c>
       <c r="D19">
-        <v>4369.52645683898</v>
+        <v>5512.73144027624</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GUUUUAGAGCUAGAA</t>
+          <t>UUUAU</t>
         </is>
       </c>
       <c r="B20">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -718,17 +718,17 @@
         </is>
       </c>
       <c r="D20">
-        <v>6695.01718375564</v>
+        <v>2315.29444821685</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CGAAGUGUGAAC</t>
+          <t>GAA</t>
         </is>
       </c>
       <c r="B21">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -736,17 +736,17 @@
         </is>
       </c>
       <c r="D21">
-        <v>5191.70248975993</v>
+        <v>2573.3440943202</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>UGAUUAACCAUGUGGCACCUGUUAAAC</t>
+          <t>CGAGU</t>
         </is>
       </c>
       <c r="B22">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -754,17 +754,17 @@
         </is>
       </c>
       <c r="D22">
-        <v>1316.21224298252</v>
+        <v>2330.34235467003</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CAGAUAGAUUACGCUCAAA</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="B23">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -772,13 +772,13 @@
         </is>
       </c>
       <c r="D23">
-        <v>1615.2062558669</v>
+        <v>1610.19167153977</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GGCAGUUUUA</t>
+          <t>CGUUUU</t>
         </is>
       </c>
       <c r="B24">
@@ -790,13 +790,13 @@
         </is>
       </c>
       <c r="D24">
-        <v>4274.56442092048</v>
+        <v>6287.75804275206</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>GAUGUAUGAG</t>
+          <t>GUA</t>
         </is>
       </c>
       <c r="B25">
@@ -808,17 +808,17 @@
         </is>
       </c>
       <c r="D25">
-        <v>10957.4451614326</v>
+        <v>2965.42708098969</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>UUAUUACCUAGAAU</t>
+          <t>AUGA</t>
         </is>
       </c>
       <c r="B26">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -826,17 +826,17 @@
         </is>
       </c>
       <c r="D26">
-        <v>3912.5333889312</v>
+        <v>1617.22487313794</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>UACGAAUGUAAUAUU</t>
+          <t>AUA</t>
         </is>
       </c>
       <c r="B27">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -844,17 +844,17 @@
         </is>
       </c>
       <c r="D27">
-        <v>3309.47845167997</v>
+        <v>3263.43490192742</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>UCGCAUGUCGGA</t>
+          <t>CGUUUU</t>
         </is>
       </c>
       <c r="B28">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -862,17 +862,17 @@
         </is>
       </c>
       <c r="D28">
-        <v>3184.40652842222</v>
+        <v>6306.72762488631</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CGAGUGGUCGUU</t>
+          <t>AAGUUG</t>
         </is>
       </c>
       <c r="B29">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -880,17 +880,17 @@
         </is>
       </c>
       <c r="D29">
-        <v>3701.41925009029</v>
+        <v>2909.38617112024</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CGAAAACUAACGG</t>
+          <t>GCUGA</t>
         </is>
       </c>
       <c r="B30">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -898,17 +898,17 @@
         </is>
       </c>
       <c r="D30">
-        <v>4258.60337137088</v>
+        <v>2491.30354703536</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GAAUAAAAUU</t>
+          <t>GCC</t>
         </is>
       </c>
       <c r="B31">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -916,17 +916,17 @@
         </is>
       </c>
       <c r="D31">
-        <v>15092.9745232695</v>
+        <v>3030.32128304283</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CAGGGAUGGU</t>
+          <t>GUU</t>
         </is>
       </c>
       <c r="B32">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -934,17 +934,17 @@
         </is>
       </c>
       <c r="D32">
-        <v>2931.42284241545</v>
+        <v>6536.84374659635</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>UACCUAAUUGAAU</t>
+          <t>UAA</t>
         </is>
       </c>
       <c r="B33">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -952,17 +952,17 @@
         </is>
       </c>
       <c r="D33">
-        <v>6452.84138793705</v>
+        <v>2288.3207881285</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CGGAAUAAAAC</t>
+          <t>CGC</t>
         </is>
       </c>
       <c r="B34">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -970,17 +970,17 @@
         </is>
       </c>
       <c r="D34">
-        <v>14477.8497897706</v>
+        <v>2626.34561367667</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>AGCAAGUUAA</t>
+          <t>AUUUUG</t>
         </is>
       </c>
       <c r="B35">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -988,17 +988,17 @@
         </is>
       </c>
       <c r="D35">
-        <v>12146.4989417918</v>
+        <v>23850.2032229827</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>GACAGUGAAAAUGAUA</t>
+          <t>UUC</t>
         </is>
       </c>
       <c r="B36">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1006,17 +1006,17 @@
         </is>
       </c>
       <c r="D36">
-        <v>3868.45179981421</v>
+        <v>12667.7014648807</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CCUAUAUUGCA</t>
+          <t>CAUC</t>
         </is>
       </c>
       <c r="B37">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1024,17 +1024,17 @@
         </is>
       </c>
       <c r="D37">
-        <v>6842.94921875537</v>
+        <v>6781.89767742212</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CCGAUGAUAAAGCGU</t>
+          <t>UCUU</t>
         </is>
       </c>
       <c r="B38">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1042,17 +1042,17 @@
         </is>
       </c>
       <c r="D38">
-        <v>3472.4235582625</v>
+        <v>6867.94687262999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GGUUCCAUUACUAU</t>
+          <t>CUUGU</t>
         </is>
       </c>
       <c r="B39">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1060,17 +1060,17 @@
         </is>
       </c>
       <c r="D39">
-        <v>2930.42932196494</v>
+        <v>11406.5591644369</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>UCAAAACACUGAUAC</t>
+          <t>UGGACUC</t>
         </is>
       </c>
       <c r="B40">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="D40">
-        <v>2895.35490141522</v>
+        <v>11303.4856625079</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>UAUUGACCUG</t>
+          <t>UCGUU</t>
         </is>
       </c>
       <c r="B41">
@@ -1096,7 +1096,61 @@
         </is>
       </c>
       <c r="D41">
-        <v>3212.44302153256</v>
+        <v>10426.4200651822</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>AAC</t>
+        </is>
+      </c>
+      <c r="B42">
+        <v>164</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ladder41</t>
+        </is>
+      </c>
+      <c r="D42">
+        <v>8788.16688197885</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>CAG</t>
+        </is>
+      </c>
+      <c r="B43">
+        <v>166</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ladder42</t>
+        </is>
+      </c>
+      <c r="D43">
+        <v>9729.293967893271</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>AAU</t>
+        </is>
+      </c>
+      <c r="B44">
+        <v>178</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>ladder43</t>
+        </is>
+      </c>
+      <c r="D44">
+        <v>12259.6105895733</v>
       </c>
     </row>
   </sheetData>
